--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableHorizontalCellsShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableHorizontalCellsShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -37,7 +37,25 @@
     <x:t>1533_5456</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
     <x:t>String parameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5456</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +461,7 @@
       <x:c r="C2" s="2">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
@@ -455,7 +473,7 @@
       <x:c r="G2" s="2">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="H2" s="0">
         <x:v>110</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
@@ -467,7 +485,7 @@
       <x:c r="K2" s="2">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="n">
+      <x:c r="L2" s="0">
         <x:v>5500.8</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
@@ -478,32 +496,32 @@
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>345</x:v>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>753465</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="n">
-        <x:v>1533</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="n">
-        <x:v>5456</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
         <x:v>0</x:v>
